--- a/000 Comunes/LOCALIZA_Todos.xlsx
+++ b/000 Comunes/LOCALIZA_Todos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 Comunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0065D5E9-4091-4B3B-9C9E-A64F8D12EBCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3B28A7-2B4A-427A-8CCD-B3EADF061906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AB53E6AF-1FF3-4851-A19F-483D14B68432}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{AB53E6AF-1FF3-4851-A19F-483D14B68432}"/>
   </bookViews>
   <sheets>
     <sheet name="Guatemala" sheetId="1" r:id="rId1"/>
@@ -6273,52 +6273,10 @@
   </cellStyles>
   <dxfs count="43">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6357,13 +6315,43 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6489,40 +6477,28 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6590,6 +6566,30 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -6604,15 +6604,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE2D6BE0-EC7F-43A0-ABBB-2741D803A271}" name="Localiza_GT_Coddep_Codmun" displayName="Localiza_GT_Coddep_Codmun" ref="B3:H344" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE2D6BE0-EC7F-43A0-ABBB-2741D803A271}" name="Localiza_GT_Coddep_Codmun" displayName="Localiza_GT_Coddep_Codmun" ref="B3:H344" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="B3:H344" xr:uid="{80F994BC-02B6-49D8-8BAD-4727167B3CCB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{52823195-5DDC-4FA1-8C26-15511A8DE191}" name="País" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{6C54E16B-BB7C-4CF7-BFB1-6ACA14B4EFF1}" name="Admin1_Tipo" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{FDF2A1D2-6755-4809-87CC-3228E801B342}" name="Coddep" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{52823195-5DDC-4FA1-8C26-15511A8DE191}" name="País" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{6C54E16B-BB7C-4CF7-BFB1-6ACA14B4EFF1}" name="Admin1_Tipo" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{FDF2A1D2-6755-4809-87CC-3228E801B342}" name="Coddep" dataDxfId="39"/>
     <tableColumn id="4" xr3:uid="{11085C95-C536-457D-BE3F-BFF289CCA943}" name="Departamento"/>
     <tableColumn id="5" xr3:uid="{5C877CF2-7446-406E-935A-1378AC3933D6}" name="Admin2_Tipo"/>
-    <tableColumn id="6" xr3:uid="{757CD74B-B6D2-430F-9B1E-6131CD82DB62}" name="Codmun" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{757CD74B-B6D2-430F-9B1E-6131CD82DB62}" name="Codmun" dataDxfId="38"/>
     <tableColumn id="7" xr3:uid="{202D12A9-D261-4EFC-AE3C-E63C097971C6}" name="Municipio"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6620,11 +6620,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DE0D9634-BBE4-44FC-AF7A-10136EE65B3C}" name="Localiza_HN_Coddep_Codmun" displayName="Localiza_HN_Coddep_Codmun" ref="C3:I314" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DE0D9634-BBE4-44FC-AF7A-10136EE65B3C}" name="Localiza_HN_Coddep_Codmun" displayName="Localiza_HN_Coddep_Codmun" ref="C3:I314" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="C3:I314" xr:uid="{69E412D4-B8A6-4F52-8336-3270D981E577}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C4F4D35E-BD48-43C4-809F-043C671D3661}" name="País" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{0A903F6D-9E22-4CDE-9811-B661E268D50F}" name="Admin1_Tipo" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{C4F4D35E-BD48-43C4-809F-043C671D3661}" name="País" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{0A903F6D-9E22-4CDE-9811-B661E268D50F}" name="Admin1_Tipo" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{FC160E31-AD78-4ADE-8FFC-A29FD17CCADD}" name="Coddep"/>
     <tableColumn id="4" xr3:uid="{33C76D6C-D602-4F50-B6DC-E4703D73777E}" name="Departamento"/>
     <tableColumn id="5" xr3:uid="{77D15F27-9103-4BA0-A67E-8C1E53C3A7FC}" name="Admin2_Tipo"/>
@@ -6636,28 +6636,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3DA5311D-A578-4014-82FA-5A7D9219C98F}" name="Localiza_CL_Codreg_Codcom" displayName="Localiza_CL_Codreg_Codcom" ref="C4:I350" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3DA5311D-A578-4014-82FA-5A7D9219C98F}" name="Localiza_CL_Codreg_Codcom" displayName="Localiza_CL_Codreg_Codcom" ref="C4:I350" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="C4:I350" xr:uid="{30C84462-F3C1-4F44-B203-382178FF9546}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F86421F7-4C7F-4516-8D0C-764843A74925}" name="País" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2DE6D409-56C4-461F-9638-6996AEBF8F51}" name="Admin1_Tipo" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D47AA608-26FC-4B09-9834-6910D96004B5}" name="Codreg" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{8D696442-1A1D-47B8-9220-88E6B8674566}" name="Región" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{BF5F1FF7-8EE9-4EE3-8F40-07A901494550}" name="Admin2_Tipo" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{95626ED8-D968-4DAD-9AE4-51888AA2F89A}" name="Codcom" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{20F7C23C-E2F3-464A-B4EB-31EBB855691A}" name="Comuna" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F86421F7-4C7F-4516-8D0C-764843A74925}" name="País" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{2DE6D409-56C4-461F-9638-6996AEBF8F51}" name="Admin1_Tipo" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{D47AA608-26FC-4B09-9834-6910D96004B5}" name="Codreg" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{8D696442-1A1D-47B8-9220-88E6B8674566}" name="Región" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{BF5F1FF7-8EE9-4EE3-8F40-07A901494550}" name="Admin2_Tipo" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{95626ED8-D968-4DAD-9AE4-51888AA2F89A}" name="Codcom" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{20F7C23C-E2F3-464A-B4EB-31EBB855691A}" name="Comuna" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3D772CB4-E87D-4693-82A2-450815D007BD}" name="Localiza_SV_Coddep_Codmun" displayName="Localiza_SV_Coddep_Codmun" ref="C4:I183" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3D772CB4-E87D-4693-82A2-450815D007BD}" name="Localiza_SV_Coddep_Codmun" displayName="Localiza_SV_Coddep_Codmun" ref="C4:I183" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="C4:I183" xr:uid="{34F3DC1C-9677-4FA1-AD8A-B35947922A71}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9A9D3399-AE9F-462C-ADC7-106057658C77}" name="País" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{9A9D3399-AE9F-462C-ADC7-106057658C77}" name="País" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{178FADB2-5D13-4251-87B2-4F7E71FC44EB}" name="Admin1_Tipo"/>
-    <tableColumn id="3" xr3:uid="{CE4C2BE6-DFCE-453C-976A-37E9774D8E20}" name="Coddep" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{CE4C2BE6-DFCE-453C-976A-37E9774D8E20}" name="Coddep" dataDxfId="23"/>
     <tableColumn id="4" xr3:uid="{3B2B5DDD-59D1-4B63-AB96-3B7CB743340E}" name="Departamento"/>
     <tableColumn id="5" xr3:uid="{109CCE6A-1EB2-4807-8C76-079FEE84166F}" name="Admin2_Tipo"/>
     <tableColumn id="6" xr3:uid="{7F5987B6-0096-4909-88FA-2FF151057E73}" name="Codmun"/>
@@ -6668,15 +6668,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7AA53BFC-A6AC-4250-AACF-D49D03F0731A}" name="Localiza_PN_Codprov_Coddist" displayName="Localiza_PN_Codprov_Coddist" ref="C4:I87" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7AA53BFC-A6AC-4250-AACF-D49D03F0731A}" name="Localiza_PN_Codprov_Coddist" displayName="Localiza_PN_Codprov_Coddist" ref="C4:I87" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="C4:I87" xr:uid="{2629C928-F9BB-4685-B901-4236EF33F4A3}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2752BC12-509F-49AA-A8B2-94830F07BDC9}" name="País" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{B98355FE-2033-4178-9DAE-FB6AAA8884CE}" name="Admin1_Tipo" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{70DD254E-AE45-4EC4-8E72-8E943F43725B}" name="Codprov" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{2752BC12-509F-49AA-A8B2-94830F07BDC9}" name="País" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{B98355FE-2033-4178-9DAE-FB6AAA8884CE}" name="Admin1_Tipo" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{70DD254E-AE45-4EC4-8E72-8E943F43725B}" name="Codprov" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{2AFE8BA1-E592-44D4-A2C8-5FE9D6727B47}" name="Provincia"/>
     <tableColumn id="5" xr3:uid="{F93AD4DB-D472-4946-BFE0-6C2D249B5D31}" name="Admin2_Tipo"/>
-    <tableColumn id="6" xr3:uid="{0BE59F54-4B31-4D62-9F6C-87F3EC10B0F0}" name="Coddist" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{0BE59F54-4B31-4D62-9F6C-87F3EC10B0F0}" name="Coddist" dataDxfId="18"/>
     <tableColumn id="7" xr3:uid="{5B9DE28C-07D5-47AC-9D74-A91029C73415}" name="Distrito"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6684,12 +6684,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C7B051A-AC6C-493C-8A17-ECE861826417}" name="Localiza_CR_Codprov_Codcan" displayName="Localiza_CR_Codprov_Codcan" ref="C4:I86" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C7B051A-AC6C-493C-8A17-ECE861826417}" name="Localiza_CR_Codprov_Codcan" displayName="Localiza_CR_Codprov_Codcan" ref="C4:I86" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="C4:I86" xr:uid="{DAB65E71-4D16-4887-A074-81B3736DBEB3}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5A12C03A-64CB-4D2C-B7EA-10172BF24939}" name="País" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{5A12C03A-64CB-4D2C-B7EA-10172BF24939}" name="País" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{FB77F064-8BA7-45B4-B12E-A22A36A7BDF2}" name="Admin1_Tipo"/>
-    <tableColumn id="3" xr3:uid="{225783E5-76FB-4AFC-BA16-6ABC0CC3FDE4}" name="Codprov" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{225783E5-76FB-4AFC-BA16-6ABC0CC3FDE4}" name="Codprov" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{2BD8012E-B0E6-4EFF-9198-8FCDE879C095}" name="Provincia"/>
     <tableColumn id="5" xr3:uid="{F0A1971C-8EFA-4CE7-ABCF-37AA5595F680}" name="Admin2_Tipo"/>
     <tableColumn id="6" xr3:uid="{B9E26DBE-CA67-40DF-B54B-743F1F5C1830}" name="Codcan"/>
@@ -6700,12 +6700,12 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28CD3555-9FAA-4269-9115-66EEC9D2C5EB}" name="Localiza_RD_Codprov_Codmun" displayName="Localiza_RD_Codprov_Codmun" ref="C4:I132" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28CD3555-9FAA-4269-9115-66EEC9D2C5EB}" name="Localiza_RD_Codprov_Codmun" displayName="Localiza_RD_Codprov_Codmun" ref="C4:I132" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="C4:I132" xr:uid="{04B45D8E-3DA4-499E-9238-3A3F12A82BB4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E33DF343-F636-49F9-A1B8-25903C99A41C}" name="País" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{E33DF343-F636-49F9-A1B8-25903C99A41C}" name="País" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{2616C86E-3D77-448D-9C2C-937EDF01EE3B}" name="Admin1_Tipo"/>
-    <tableColumn id="3" xr3:uid="{6F1CDB88-6E44-440B-A75D-4F8DB853804A}" name="Codprov" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{6F1CDB88-6E44-440B-A75D-4F8DB853804A}" name="Codprov" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{4BDB78B1-D89A-4E74-9E7B-667497CDF364}" name="Provincia"/>
     <tableColumn id="5" xr3:uid="{54EAB9C2-FC9B-4F6B-A511-71E40C577E57}" name="Admin2_Tipo"/>
     <tableColumn id="6" xr3:uid="{A11C6BF0-8CB4-4AE2-8241-2A10E81E392C}" name="Codmun"/>
@@ -6716,28 +6716,28 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{399DD497-47C6-4E0E-8D6F-7C13CC35EB53}" name="Localiza_BZ_Coddist_Codmun" displayName="Localiza_BZ_Coddist_Codmun" ref="C18:I24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{399DD497-47C6-4E0E-8D6F-7C13CC35EB53}" name="Localiza_BZ_Coddist_Codmun" displayName="Localiza_BZ_Coddist_Codmun" ref="C18:I24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="C18:I24" xr:uid="{06CE1721-AA61-41F9-A9A7-664F615AC89F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{95153102-3781-4571-AE25-1E7DF728ABB6}" name="País" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{3523F29D-2FD0-4BBB-BFDF-D6075F19B7D9}" name="Admin1_Tipo" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{C34C956F-2CC4-4EC4-96FC-A7E6F55343F5}" name="Coddist" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{FEE91125-6BCB-4A5C-B30E-74BE9354F537}" name="Distrito" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{3302CD54-C3E7-4800-B81F-FD06A53B47A5}" name="Admin2_Tipo" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{5394048F-210C-47C8-9724-C6401E9FB0AE}" name="Codmun" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{7E4B98AC-ECCF-4D1A-B069-F9CEA7DD923B}" name="Municipio" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{95153102-3781-4571-AE25-1E7DF728ABB6}" name="País" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3523F29D-2FD0-4BBB-BFDF-D6075F19B7D9}" name="Admin1_Tipo" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C34C956F-2CC4-4EC4-96FC-A7E6F55343F5}" name="Coddist" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FEE91125-6BCB-4A5C-B30E-74BE9354F537}" name="Distrito" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3302CD54-C3E7-4800-B81F-FD06A53B47A5}" name="Admin2_Tipo" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5394048F-210C-47C8-9724-C6401E9FB0AE}" name="Codmun" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{7E4B98AC-ECCF-4D1A-B069-F9CEA7DD923B}" name="Municipio" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3F6513FE-C2E3-4BDD-BA87-C0C1972452AD}" name="Localiza_NI_Coddep_Codmun" displayName="Localiza_NI_Coddep_Codmun" ref="C4:I136" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3F6513FE-C2E3-4BDD-BA87-C0C1972452AD}" name="Localiza_NI_Coddep_Codmun" displayName="Localiza_NI_Coddep_Codmun" ref="C4:I136" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="C4:I136" xr:uid="{E7F87C50-97DE-4DCB-9A4E-A4DB1F2CD95F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{236B5109-7497-40C8-BA7E-8E8631311F9C}" name="País" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{236B5109-7497-40C8-BA7E-8E8631311F9C}" name="País" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{9362AF21-3014-432E-B2FA-41A5A2920BD6}" name="Admin1_Tipo"/>
-    <tableColumn id="3" xr3:uid="{5E996D9E-C917-40BE-B2BC-6C1B0FF42332}" name="Coddep" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{5E996D9E-C917-40BE-B2BC-6C1B0FF42332}" name="Coddep" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{02DE2913-6D90-4243-8BC6-59B56AA8934D}" name="Departamento"/>
     <tableColumn id="5" xr3:uid="{896D1DF7-31E2-436C-8CFA-68F633BD0F77}" name="Admin2_Tipo"/>
     <tableColumn id="6" xr3:uid="{BAC3192E-7D67-45B7-AD68-45E35D0B50AB}" name="Codmun"/>
@@ -7046,7 +7046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D25ABE-1CFE-4B09-AE9A-A92817E722E3}">
   <dimension ref="B3:H344"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H7"/>
     </sheetView>
   </sheetViews>
@@ -22140,10 +22140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE52D86-ABDB-483A-A00E-B65A0C21440C}">
-  <dimension ref="C4:I350"/>
+  <dimension ref="B4:I350"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="J341" sqref="J341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22157,7 +22157,7 @@
     <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -22180,7 +22180,11 @@
         <v>634</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>1101</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>631</v>
       </c>
@@ -22203,7 +22207,11 @@
         <v>635</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>1107</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>631</v>
       </c>
@@ -22226,7 +22234,11 @@
         <v>636</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>1401</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>631</v>
       </c>
@@ -22249,7 +22261,11 @@
         <v>637</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>1402</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>631</v>
       </c>
@@ -22272,7 +22288,11 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>1403</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>631</v>
       </c>
@@ -22295,7 +22315,11 @@
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>1404</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>631</v>
       </c>
@@ -22318,7 +22342,11 @@
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>1405</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>631</v>
       </c>
@@ -22341,7 +22369,11 @@
         <v>641</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>2101</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>631</v>
       </c>
@@ -22364,7 +22396,11 @@
         <v>642</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>2102</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>631</v>
       </c>
@@ -22387,7 +22423,11 @@
         <v>643</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>2103</v>
+      </c>
       <c r="C14" s="4" t="s">
         <v>631</v>
       </c>
@@ -22410,7 +22450,11 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>2104</v>
+      </c>
       <c r="C15" s="4" t="s">
         <v>631</v>
       </c>
@@ -22433,7 +22477,11 @@
         <v>645</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>2201</v>
+      </c>
       <c r="C16" s="4" t="s">
         <v>631</v>
       </c>
@@ -22456,7 +22504,11 @@
         <v>646</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>2202</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>631</v>
       </c>
@@ -22479,7 +22531,11 @@
         <v>647</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>2203</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>631</v>
       </c>
@@ -22502,7 +22558,11 @@
         <v>648</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>2301</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>631</v>
       </c>
@@ -22525,7 +22585,11 @@
         <v>649</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>2302</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>631</v>
       </c>
@@ -22548,7 +22612,11 @@
         <v>650</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>3101</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>631</v>
       </c>
@@ -22571,7 +22639,11 @@
         <v>652</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>3102</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>631</v>
       </c>
@@ -22594,7 +22666,11 @@
         <v>653</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>3103</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>631</v>
       </c>
@@ -22617,7 +22693,11 @@
         <v>654</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>3201</v>
+      </c>
       <c r="C24" s="4" t="s">
         <v>631</v>
       </c>
@@ -22640,7 +22720,11 @@
         <v>655</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>3202</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>631</v>
       </c>
@@ -22663,7 +22747,11 @@
         <v>656</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>3301</v>
+      </c>
       <c r="C26" s="4" t="s">
         <v>631</v>
       </c>
@@ -22686,7 +22774,11 @@
         <v>657</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>3302</v>
+      </c>
       <c r="C27" s="4" t="s">
         <v>631</v>
       </c>
@@ -22709,7 +22801,11 @@
         <v>658</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>3303</v>
+      </c>
       <c r="C28" s="4" t="s">
         <v>631</v>
       </c>
@@ -22732,7 +22828,11 @@
         <v>659</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>3304</v>
+      </c>
       <c r="C29" s="4" t="s">
         <v>631</v>
       </c>
@@ -22755,7 +22855,11 @@
         <v>660</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4101</v>
+      </c>
       <c r="C30" s="4" t="s">
         <v>631</v>
       </c>
@@ -22778,7 +22882,11 @@
         <v>662</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4102</v>
+      </c>
       <c r="C31" s="4" t="s">
         <v>631</v>
       </c>
@@ -22801,7 +22909,11 @@
         <v>661</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4103</v>
+      </c>
       <c r="C32" s="4" t="s">
         <v>631</v>
       </c>
@@ -22824,7 +22936,11 @@
         <v>663</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4104</v>
+      </c>
       <c r="C33" s="4" t="s">
         <v>631</v>
       </c>
@@ -22847,7 +22963,11 @@
         <v>664</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4105</v>
+      </c>
       <c r="C34" s="4" t="s">
         <v>631</v>
       </c>
@@ -22870,7 +22990,11 @@
         <v>665</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4106</v>
+      </c>
       <c r="C35" s="4" t="s">
         <v>631</v>
       </c>
@@ -22893,7 +23017,11 @@
         <v>666</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4201</v>
+      </c>
       <c r="C36" s="4" t="s">
         <v>631</v>
       </c>
@@ -22916,7 +23044,11 @@
         <v>667</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4202</v>
+      </c>
       <c r="C37" s="4" t="s">
         <v>631</v>
       </c>
@@ -22939,7 +23071,11 @@
         <v>668</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4203</v>
+      </c>
       <c r="C38" s="4" t="s">
         <v>631</v>
       </c>
@@ -22962,7 +23098,11 @@
         <v>669</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4204</v>
+      </c>
       <c r="C39" s="4" t="s">
         <v>631</v>
       </c>
@@ -22985,7 +23125,11 @@
         <v>670</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4301</v>
+      </c>
       <c r="C40" s="4" t="s">
         <v>631</v>
       </c>
@@ -23008,7 +23152,11 @@
         <v>671</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4302</v>
+      </c>
       <c r="C41" s="4" t="s">
         <v>631</v>
       </c>
@@ -23031,7 +23179,11 @@
         <v>672</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4303</v>
+      </c>
       <c r="C42" s="4" t="s">
         <v>631</v>
       </c>
@@ -23054,7 +23206,11 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4304</v>
+      </c>
       <c r="C43" s="4" t="s">
         <v>631</v>
       </c>
@@ -23077,7 +23233,11 @@
         <v>674</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>4305</v>
+      </c>
       <c r="C44" s="4" t="s">
         <v>631</v>
       </c>
@@ -23100,7 +23260,11 @@
         <v>675</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5101</v>
+      </c>
       <c r="C45" s="4" t="s">
         <v>631</v>
       </c>
@@ -23123,7 +23287,11 @@
         <v>676</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5102</v>
+      </c>
       <c r="C46" s="4" t="s">
         <v>631</v>
       </c>
@@ -23146,7 +23314,11 @@
         <v>677</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5103</v>
+      </c>
       <c r="C47" s="4" t="s">
         <v>631</v>
       </c>
@@ -23169,7 +23341,11 @@
         <v>678</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5104</v>
+      </c>
       <c r="C48" s="4" t="s">
         <v>631</v>
       </c>
@@ -23192,7 +23368,11 @@
         <v>679</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5105</v>
+      </c>
       <c r="C49" s="4" t="s">
         <v>631</v>
       </c>
@@ -23215,7 +23395,11 @@
         <v>680</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5107</v>
+      </c>
       <c r="C50" s="4" t="s">
         <v>631</v>
       </c>
@@ -23238,7 +23422,11 @@
         <v>681</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5109</v>
+      </c>
       <c r="C51" s="4" t="s">
         <v>631</v>
       </c>
@@ -23261,7 +23449,11 @@
         <v>682</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5201</v>
+      </c>
       <c r="C52" s="4" t="s">
         <v>631</v>
       </c>
@@ -23284,7 +23476,11 @@
         <v>683</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5301</v>
+      </c>
       <c r="C53" s="4" t="s">
         <v>631</v>
       </c>
@@ -23307,7 +23503,11 @@
         <v>684</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5302</v>
+      </c>
       <c r="C54" s="4" t="s">
         <v>631</v>
       </c>
@@ -23330,7 +23530,11 @@
         <v>685</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5303</v>
+      </c>
       <c r="C55" s="4" t="s">
         <v>631</v>
       </c>
@@ -23353,7 +23557,11 @@
         <v>686</v>
       </c>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5304</v>
+      </c>
       <c r="C56" s="4" t="s">
         <v>631</v>
       </c>
@@ -23376,7 +23584,11 @@
         <v>687</v>
       </c>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5401</v>
+      </c>
       <c r="C57" s="4" t="s">
         <v>631</v>
       </c>
@@ -23399,7 +23611,11 @@
         <v>688</v>
       </c>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5402</v>
+      </c>
       <c r="C58" s="4" t="s">
         <v>631</v>
       </c>
@@ -23422,7 +23638,11 @@
         <v>689</v>
       </c>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5403</v>
+      </c>
       <c r="C59" s="4" t="s">
         <v>631</v>
       </c>
@@ -23445,7 +23665,11 @@
         <v>690</v>
       </c>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5404</v>
+      </c>
       <c r="C60" s="4" t="s">
         <v>631</v>
       </c>
@@ -23468,7 +23692,11 @@
         <v>691</v>
       </c>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5405</v>
+      </c>
       <c r="C61" s="4" t="s">
         <v>631</v>
       </c>
@@ -23491,7 +23719,11 @@
         <v>692</v>
       </c>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5501</v>
+      </c>
       <c r="C62" s="4" t="s">
         <v>631</v>
       </c>
@@ -23514,7 +23746,11 @@
         <v>693</v>
       </c>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5502</v>
+      </c>
       <c r="C63" s="4" t="s">
         <v>631</v>
       </c>
@@ -23537,7 +23773,11 @@
         <v>694</v>
       </c>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5503</v>
+      </c>
       <c r="C64" s="4" t="s">
         <v>631</v>
       </c>
@@ -23560,7 +23800,11 @@
         <v>695</v>
       </c>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5504</v>
+      </c>
       <c r="C65" s="4" t="s">
         <v>631</v>
       </c>
@@ -23583,7 +23827,11 @@
         <v>696</v>
       </c>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5506</v>
+      </c>
       <c r="C66" s="4" t="s">
         <v>631</v>
       </c>
@@ -23606,7 +23854,11 @@
         <v>697</v>
       </c>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5601</v>
+      </c>
       <c r="C67" s="4" t="s">
         <v>631</v>
       </c>
@@ -23629,7 +23881,11 @@
         <v>698</v>
       </c>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5602</v>
+      </c>
       <c r="C68" s="4" t="s">
         <v>631</v>
       </c>
@@ -23652,7 +23908,11 @@
         <v>699</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5603</v>
+      </c>
       <c r="C69" s="4" t="s">
         <v>631</v>
       </c>
@@ -23675,7 +23935,11 @@
         <v>700</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5604</v>
+      </c>
       <c r="C70" s="4" t="s">
         <v>631</v>
       </c>
@@ -23698,7 +23962,11 @@
         <v>701</v>
       </c>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5605</v>
+      </c>
       <c r="C71" s="4" t="s">
         <v>631</v>
       </c>
@@ -23721,7 +23989,11 @@
         <v>702</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5606</v>
+      </c>
       <c r="C72" s="4" t="s">
         <v>631</v>
       </c>
@@ -23744,7 +24016,11 @@
         <v>703</v>
       </c>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5701</v>
+      </c>
       <c r="C73" s="4" t="s">
         <v>631</v>
       </c>
@@ -23767,7 +24043,11 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5702</v>
+      </c>
       <c r="C74" s="4" t="s">
         <v>631</v>
       </c>
@@ -23790,7 +24070,11 @@
         <v>704</v>
       </c>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5703</v>
+      </c>
       <c r="C75" s="4" t="s">
         <v>631</v>
       </c>
@@ -23813,7 +24097,11 @@
         <v>705</v>
       </c>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5704</v>
+      </c>
       <c r="C76" s="4" t="s">
         <v>631</v>
       </c>
@@ -23836,7 +24124,11 @@
         <v>706</v>
       </c>
     </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5705</v>
+      </c>
       <c r="C77" s="4" t="s">
         <v>631</v>
       </c>
@@ -23859,7 +24151,11 @@
         <v>707</v>
       </c>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5706</v>
+      </c>
       <c r="C78" s="4" t="s">
         <v>631</v>
       </c>
@@ -23882,7 +24178,11 @@
         <v>708</v>
       </c>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5801</v>
+      </c>
       <c r="C79" s="4" t="s">
         <v>631</v>
       </c>
@@ -23905,7 +24205,11 @@
         <v>709</v>
       </c>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5802</v>
+      </c>
       <c r="C80" s="4" t="s">
         <v>631</v>
       </c>
@@ -23928,7 +24232,11 @@
         <v>710</v>
       </c>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5803</v>
+      </c>
       <c r="C81" s="4" t="s">
         <v>631</v>
       </c>
@@ -23951,7 +24259,11 @@
         <v>711</v>
       </c>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>5804</v>
+      </c>
       <c r="C82" s="4" t="s">
         <v>631</v>
       </c>
@@ -23974,7 +24286,11 @@
         <v>712</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6101</v>
+      </c>
       <c r="C83" s="4" t="s">
         <v>631</v>
       </c>
@@ -23997,7 +24313,11 @@
         <v>714</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6102</v>
+      </c>
       <c r="C84" s="4" t="s">
         <v>631</v>
       </c>
@@ -24020,7 +24340,11 @@
         <v>715</v>
       </c>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6103</v>
+      </c>
       <c r="C85" s="4" t="s">
         <v>631</v>
       </c>
@@ -24043,7 +24367,11 @@
         <v>716</v>
       </c>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6104</v>
+      </c>
       <c r="C86" s="4" t="s">
         <v>631</v>
       </c>
@@ -24066,7 +24394,11 @@
         <v>717</v>
       </c>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6105</v>
+      </c>
       <c r="C87" s="4" t="s">
         <v>631</v>
       </c>
@@ -24089,7 +24421,11 @@
         <v>718</v>
       </c>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6106</v>
+      </c>
       <c r="C88" s="4" t="s">
         <v>631</v>
       </c>
@@ -24112,7 +24448,11 @@
         <v>719</v>
       </c>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6107</v>
+      </c>
       <c r="C89" s="4" t="s">
         <v>631</v>
       </c>
@@ -24135,7 +24475,11 @@
         <v>720</v>
       </c>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6108</v>
+      </c>
       <c r="C90" s="4" t="s">
         <v>631</v>
       </c>
@@ -24158,7 +24502,11 @@
         <v>721</v>
       </c>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6109</v>
+      </c>
       <c r="C91" s="4" t="s">
         <v>631</v>
       </c>
@@ -24181,7 +24529,11 @@
         <v>722</v>
       </c>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6110</v>
+      </c>
       <c r="C92" s="4" t="s">
         <v>631</v>
       </c>
@@ -24204,7 +24556,11 @@
         <v>723</v>
       </c>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6111</v>
+      </c>
       <c r="C93" s="4" t="s">
         <v>631</v>
       </c>
@@ -24227,7 +24583,11 @@
         <v>724</v>
       </c>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6112</v>
+      </c>
       <c r="C94" s="4" t="s">
         <v>631</v>
       </c>
@@ -24250,7 +24610,11 @@
         <v>725</v>
       </c>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6113</v>
+      </c>
       <c r="C95" s="4" t="s">
         <v>631</v>
       </c>
@@ -24273,7 +24637,11 @@
         <v>726</v>
       </c>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6114</v>
+      </c>
       <c r="C96" s="4" t="s">
         <v>631</v>
       </c>
@@ -24296,7 +24664,11 @@
         <v>727</v>
       </c>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6115</v>
+      </c>
       <c r="C97" s="4" t="s">
         <v>631</v>
       </c>
@@ -24319,7 +24691,11 @@
         <v>728</v>
       </c>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6116</v>
+      </c>
       <c r="C98" s="4" t="s">
         <v>631</v>
       </c>
@@ -24342,7 +24718,11 @@
         <v>729</v>
       </c>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6117</v>
+      </c>
       <c r="C99" s="4" t="s">
         <v>631</v>
       </c>
@@ -24365,7 +24745,11 @@
         <v>730</v>
       </c>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6201</v>
+      </c>
       <c r="C100" s="4" t="s">
         <v>631</v>
       </c>
@@ -24388,7 +24772,11 @@
         <v>731</v>
       </c>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6202</v>
+      </c>
       <c r="C101" s="4" t="s">
         <v>631</v>
       </c>
@@ -24411,7 +24799,11 @@
         <v>732</v>
       </c>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6203</v>
+      </c>
       <c r="C102" s="4" t="s">
         <v>631</v>
       </c>
@@ -24434,7 +24826,11 @@
         <v>733</v>
       </c>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6204</v>
+      </c>
       <c r="C103" s="4" t="s">
         <v>631</v>
       </c>
@@ -24457,7 +24853,11 @@
         <v>734</v>
       </c>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6205</v>
+      </c>
       <c r="C104" s="4" t="s">
         <v>631</v>
       </c>
@@ -24480,7 +24880,11 @@
         <v>735</v>
       </c>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6206</v>
+      </c>
       <c r="C105" s="4" t="s">
         <v>631</v>
       </c>
@@ -24503,7 +24907,11 @@
         <v>736</v>
       </c>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6301</v>
+      </c>
       <c r="C106" s="4" t="s">
         <v>631</v>
       </c>
@@ -24526,7 +24934,11 @@
         <v>737</v>
       </c>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6302</v>
+      </c>
       <c r="C107" s="4" t="s">
         <v>631</v>
       </c>
@@ -24549,7 +24961,11 @@
         <v>738</v>
       </c>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6303</v>
+      </c>
       <c r="C108" s="4" t="s">
         <v>631</v>
       </c>
@@ -24572,7 +24988,11 @@
         <v>739</v>
       </c>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6304</v>
+      </c>
       <c r="C109" s="4" t="s">
         <v>631</v>
       </c>
@@ -24595,7 +25015,11 @@
         <v>740</v>
       </c>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6305</v>
+      </c>
       <c r="C110" s="4" t="s">
         <v>631</v>
       </c>
@@ -24618,7 +25042,11 @@
         <v>741</v>
       </c>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6306</v>
+      </c>
       <c r="C111" s="4" t="s">
         <v>631</v>
       </c>
@@ -24641,7 +25069,11 @@
         <v>742</v>
       </c>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6307</v>
+      </c>
       <c r="C112" s="4" t="s">
         <v>631</v>
       </c>
@@ -24664,7 +25096,11 @@
         <v>743</v>
       </c>
     </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6308</v>
+      </c>
       <c r="C113" s="4" t="s">
         <v>631</v>
       </c>
@@ -24687,7 +25123,11 @@
         <v>744</v>
       </c>
     </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6309</v>
+      </c>
       <c r="C114" s="4" t="s">
         <v>631</v>
       </c>
@@ -24710,7 +25150,11 @@
         <v>745</v>
       </c>
     </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>6310</v>
+      </c>
       <c r="C115" s="4" t="s">
         <v>631</v>
       </c>
@@ -24733,7 +25177,11 @@
         <v>746</v>
       </c>
     </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7101</v>
+      </c>
       <c r="C116" s="4" t="s">
         <v>631</v>
       </c>
@@ -24756,7 +25204,11 @@
         <v>748</v>
       </c>
     </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7102</v>
+      </c>
       <c r="C117" s="4" t="s">
         <v>631</v>
       </c>
@@ -24779,7 +25231,11 @@
         <v>749</v>
       </c>
     </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7103</v>
+      </c>
       <c r="C118" s="4" t="s">
         <v>631</v>
       </c>
@@ -24802,7 +25258,11 @@
         <v>750</v>
       </c>
     </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7104</v>
+      </c>
       <c r="C119" s="4" t="s">
         <v>631</v>
       </c>
@@ -24825,7 +25285,11 @@
         <v>751</v>
       </c>
     </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7105</v>
+      </c>
       <c r="C120" s="4" t="s">
         <v>631</v>
       </c>
@@ -24848,7 +25312,11 @@
         <v>747</v>
       </c>
     </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7106</v>
+      </c>
       <c r="C121" s="4" t="s">
         <v>631</v>
       </c>
@@ -24871,7 +25339,11 @@
         <v>752</v>
       </c>
     </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7107</v>
+      </c>
       <c r="C122" s="4" t="s">
         <v>631</v>
       </c>
@@ -24894,7 +25366,11 @@
         <v>753</v>
       </c>
     </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7108</v>
+      </c>
       <c r="C123" s="4" t="s">
         <v>631</v>
       </c>
@@ -24917,7 +25393,11 @@
         <v>754</v>
       </c>
     </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7109</v>
+      </c>
       <c r="C124" s="4" t="s">
         <v>631</v>
       </c>
@@ -24940,7 +25420,11 @@
         <v>755</v>
       </c>
     </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7110</v>
+      </c>
       <c r="C125" s="4" t="s">
         <v>631</v>
       </c>
@@ -24963,7 +25447,11 @@
         <v>756</v>
       </c>
     </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7201</v>
+      </c>
       <c r="C126" s="4" t="s">
         <v>631</v>
       </c>
@@ -24986,7 +25474,11 @@
         <v>757</v>
       </c>
     </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7202</v>
+      </c>
       <c r="C127" s="4" t="s">
         <v>631</v>
       </c>
@@ -25009,7 +25501,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7203</v>
+      </c>
       <c r="C128" s="4" t="s">
         <v>631</v>
       </c>
@@ -25032,7 +25528,11 @@
         <v>759</v>
       </c>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7301</v>
+      </c>
       <c r="C129" s="4" t="s">
         <v>631</v>
       </c>
@@ -25055,7 +25555,11 @@
         <v>760</v>
       </c>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7302</v>
+      </c>
       <c r="C130" s="4" t="s">
         <v>631</v>
       </c>
@@ -25078,7 +25582,11 @@
         <v>761</v>
       </c>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7303</v>
+      </c>
       <c r="C131" s="4" t="s">
         <v>631</v>
       </c>
@@ -25101,7 +25609,11 @@
         <v>762</v>
       </c>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7304</v>
+      </c>
       <c r="C132" s="4" t="s">
         <v>631</v>
       </c>
@@ -25124,7 +25636,11 @@
         <v>763</v>
       </c>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7305</v>
+      </c>
       <c r="C133" s="4" t="s">
         <v>631</v>
       </c>
@@ -25147,7 +25663,11 @@
         <v>764</v>
       </c>
     </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7306</v>
+      </c>
       <c r="C134" s="4" t="s">
         <v>631</v>
       </c>
@@ -25170,7 +25690,11 @@
         <v>765</v>
       </c>
     </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7307</v>
+      </c>
       <c r="C135" s="4" t="s">
         <v>631</v>
       </c>
@@ -25193,7 +25717,11 @@
         <v>766</v>
       </c>
     </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7308</v>
+      </c>
       <c r="C136" s="4" t="s">
         <v>631</v>
       </c>
@@ -25216,7 +25744,11 @@
         <v>767</v>
       </c>
     </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7309</v>
+      </c>
       <c r="C137" s="4" t="s">
         <v>631</v>
       </c>
@@ -25239,7 +25771,11 @@
         <v>768</v>
       </c>
     </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7401</v>
+      </c>
       <c r="C138" s="4" t="s">
         <v>631</v>
       </c>
@@ -25262,7 +25798,11 @@
         <v>769</v>
       </c>
     </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7402</v>
+      </c>
       <c r="C139" s="4" t="s">
         <v>631</v>
       </c>
@@ -25285,7 +25825,11 @@
         <v>770</v>
       </c>
     </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7403</v>
+      </c>
       <c r="C140" s="4" t="s">
         <v>631</v>
       </c>
@@ -25308,7 +25852,11 @@
         <v>771</v>
       </c>
     </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7404</v>
+      </c>
       <c r="C141" s="4" t="s">
         <v>631</v>
       </c>
@@ -25331,7 +25879,11 @@
         <v>772</v>
       </c>
     </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7405</v>
+      </c>
       <c r="C142" s="4" t="s">
         <v>631</v>
       </c>
@@ -25354,7 +25906,11 @@
         <v>773</v>
       </c>
     </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7406</v>
+      </c>
       <c r="C143" s="4" t="s">
         <v>631</v>
       </c>
@@ -25377,7 +25933,11 @@
         <v>774</v>
       </c>
     </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7407</v>
+      </c>
       <c r="C144" s="4" t="s">
         <v>631</v>
       </c>
@@ -25400,7 +25960,11 @@
         <v>775</v>
       </c>
     </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>7408</v>
+      </c>
       <c r="C145" s="4" t="s">
         <v>631</v>
       </c>
@@ -25423,7 +25987,11 @@
         <v>776</v>
       </c>
     </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8101</v>
+      </c>
       <c r="C146" s="4" t="s">
         <v>631</v>
       </c>
@@ -25446,7 +26014,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8102</v>
+      </c>
       <c r="C147" s="4" t="s">
         <v>631</v>
       </c>
@@ -25469,7 +26041,11 @@
         <v>778</v>
       </c>
     </row>
-    <row r="148" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8103</v>
+      </c>
       <c r="C148" s="4" t="s">
         <v>631</v>
       </c>
@@ -25492,7 +26068,11 @@
         <v>779</v>
       </c>
     </row>
-    <row r="149" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8104</v>
+      </c>
       <c r="C149" s="4" t="s">
         <v>631</v>
       </c>
@@ -25515,7 +26095,11 @@
         <v>780</v>
       </c>
     </row>
-    <row r="150" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8105</v>
+      </c>
       <c r="C150" s="4" t="s">
         <v>631</v>
       </c>
@@ -25538,7 +26122,11 @@
         <v>781</v>
       </c>
     </row>
-    <row r="151" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8106</v>
+      </c>
       <c r="C151" s="4" t="s">
         <v>631</v>
       </c>
@@ -25561,7 +26149,11 @@
         <v>782</v>
       </c>
     </row>
-    <row r="152" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8107</v>
+      </c>
       <c r="C152" s="4" t="s">
         <v>631</v>
       </c>
@@ -25584,7 +26176,11 @@
         <v>783</v>
       </c>
     </row>
-    <row r="153" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8108</v>
+      </c>
       <c r="C153" s="4" t="s">
         <v>631</v>
       </c>
@@ -25607,7 +26203,11 @@
         <v>784</v>
       </c>
     </row>
-    <row r="154" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8109</v>
+      </c>
       <c r="C154" s="4" t="s">
         <v>631</v>
       </c>
@@ -25630,7 +26230,11 @@
         <v>785</v>
       </c>
     </row>
-    <row r="155" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8110</v>
+      </c>
       <c r="C155" s="4" t="s">
         <v>631</v>
       </c>
@@ -25653,7 +26257,11 @@
         <v>786</v>
       </c>
     </row>
-    <row r="156" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8111</v>
+      </c>
       <c r="C156" s="4" t="s">
         <v>631</v>
       </c>
@@ -25676,7 +26284,11 @@
         <v>787</v>
       </c>
     </row>
-    <row r="157" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8112</v>
+      </c>
       <c r="C157" s="4" t="s">
         <v>631</v>
       </c>
@@ -25699,7 +26311,11 @@
         <v>788</v>
       </c>
     </row>
-    <row r="158" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8201</v>
+      </c>
       <c r="C158" s="4" t="s">
         <v>631</v>
       </c>
@@ -25722,7 +26338,11 @@
         <v>789</v>
       </c>
     </row>
-    <row r="159" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8202</v>
+      </c>
       <c r="C159" s="4" t="s">
         <v>631</v>
       </c>
@@ -25745,7 +26365,11 @@
         <v>790</v>
       </c>
     </row>
-    <row r="160" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8203</v>
+      </c>
       <c r="C160" s="4" t="s">
         <v>631</v>
       </c>
@@ -25768,7 +26392,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="161" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8204</v>
+      </c>
       <c r="C161" s="4" t="s">
         <v>631</v>
       </c>
@@ -25791,7 +26419,11 @@
         <v>792</v>
       </c>
     </row>
-    <row r="162" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8205</v>
+      </c>
       <c r="C162" s="4" t="s">
         <v>631</v>
       </c>
@@ -25814,7 +26446,11 @@
         <v>793</v>
       </c>
     </row>
-    <row r="163" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8206</v>
+      </c>
       <c r="C163" s="4" t="s">
         <v>631</v>
       </c>
@@ -25837,7 +26473,11 @@
         <v>794</v>
       </c>
     </row>
-    <row r="164" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8207</v>
+      </c>
       <c r="C164" s="4" t="s">
         <v>631</v>
       </c>
@@ -25860,7 +26500,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="165" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8301</v>
+      </c>
       <c r="C165" s="4" t="s">
         <v>631</v>
       </c>
@@ -25883,7 +26527,11 @@
         <v>796</v>
       </c>
     </row>
-    <row r="166" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8302</v>
+      </c>
       <c r="C166" s="4" t="s">
         <v>631</v>
       </c>
@@ -25906,7 +26554,11 @@
         <v>797</v>
       </c>
     </row>
-    <row r="167" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8303</v>
+      </c>
       <c r="C167" s="4" t="s">
         <v>631</v>
       </c>
@@ -25929,7 +26581,11 @@
         <v>798</v>
       </c>
     </row>
-    <row r="168" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8304</v>
+      </c>
       <c r="C168" s="4" t="s">
         <v>631</v>
       </c>
@@ -25952,7 +26608,11 @@
         <v>799</v>
       </c>
     </row>
-    <row r="169" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8305</v>
+      </c>
       <c r="C169" s="4" t="s">
         <v>631</v>
       </c>
@@ -25975,7 +26635,11 @@
         <v>800</v>
       </c>
     </row>
-    <row r="170" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8306</v>
+      </c>
       <c r="C170" s="4" t="s">
         <v>631</v>
       </c>
@@ -25998,7 +26662,11 @@
         <v>801</v>
       </c>
     </row>
-    <row r="171" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8307</v>
+      </c>
       <c r="C171" s="4" t="s">
         <v>631</v>
       </c>
@@ -26021,7 +26689,11 @@
         <v>802</v>
       </c>
     </row>
-    <row r="172" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8308</v>
+      </c>
       <c r="C172" s="4" t="s">
         <v>631</v>
       </c>
@@ -26044,7 +26716,11 @@
         <v>803</v>
       </c>
     </row>
-    <row r="173" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8309</v>
+      </c>
       <c r="C173" s="4" t="s">
         <v>631</v>
       </c>
@@ -26067,7 +26743,11 @@
         <v>804</v>
       </c>
     </row>
-    <row r="174" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8310</v>
+      </c>
       <c r="C174" s="4" t="s">
         <v>631</v>
       </c>
@@ -26090,7 +26770,11 @@
         <v>805</v>
       </c>
     </row>
-    <row r="175" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8311</v>
+      </c>
       <c r="C175" s="4" t="s">
         <v>631</v>
       </c>
@@ -26113,7 +26797,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="176" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8312</v>
+      </c>
       <c r="C176" s="4" t="s">
         <v>631</v>
       </c>
@@ -26136,7 +26824,11 @@
         <v>806</v>
       </c>
     </row>
-    <row r="177" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8313</v>
+      </c>
       <c r="C177" s="4" t="s">
         <v>631</v>
       </c>
@@ -26159,7 +26851,11 @@
         <v>807</v>
       </c>
     </row>
-    <row r="178" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>8314</v>
+      </c>
       <c r="C178" s="4" t="s">
         <v>631</v>
       </c>
@@ -26182,7 +26878,11 @@
         <v>808</v>
       </c>
     </row>
-    <row r="179" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9101</v>
+      </c>
       <c r="C179" s="4" t="s">
         <v>631</v>
       </c>
@@ -26205,7 +26905,11 @@
         <v>810</v>
       </c>
     </row>
-    <row r="180" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9102</v>
+      </c>
       <c r="C180" s="4" t="s">
         <v>631</v>
       </c>
@@ -26228,7 +26932,11 @@
         <v>811</v>
       </c>
     </row>
-    <row r="181" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9103</v>
+      </c>
       <c r="C181" s="4" t="s">
         <v>631</v>
       </c>
@@ -26251,7 +26959,11 @@
         <v>812</v>
       </c>
     </row>
-    <row r="182" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9104</v>
+      </c>
       <c r="C182" s="4" t="s">
         <v>631</v>
       </c>
@@ -26274,7 +26986,11 @@
         <v>813</v>
       </c>
     </row>
-    <row r="183" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9105</v>
+      </c>
       <c r="C183" s="4" t="s">
         <v>631</v>
       </c>
@@ -26297,7 +27013,11 @@
         <v>814</v>
       </c>
     </row>
-    <row r="184" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9106</v>
+      </c>
       <c r="C184" s="4" t="s">
         <v>631</v>
       </c>
@@ -26320,7 +27040,11 @@
         <v>815</v>
       </c>
     </row>
-    <row r="185" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9107</v>
+      </c>
       <c r="C185" s="4" t="s">
         <v>631</v>
       </c>
@@ -26343,7 +27067,11 @@
         <v>816</v>
       </c>
     </row>
-    <row r="186" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9108</v>
+      </c>
       <c r="C186" s="4" t="s">
         <v>631</v>
       </c>
@@ -26366,7 +27094,11 @@
         <v>817</v>
       </c>
     </row>
-    <row r="187" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9109</v>
+      </c>
       <c r="C187" s="4" t="s">
         <v>631</v>
       </c>
@@ -26389,7 +27121,11 @@
         <v>818</v>
       </c>
     </row>
-    <row r="188" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9110</v>
+      </c>
       <c r="C188" s="4" t="s">
         <v>631</v>
       </c>
@@ -26412,7 +27148,11 @@
         <v>819</v>
       </c>
     </row>
-    <row r="189" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9111</v>
+      </c>
       <c r="C189" s="4" t="s">
         <v>631</v>
       </c>
@@ -26435,7 +27175,11 @@
         <v>820</v>
       </c>
     </row>
-    <row r="190" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9112</v>
+      </c>
       <c r="C190" s="4" t="s">
         <v>631</v>
       </c>
@@ -26458,7 +27202,11 @@
         <v>821</v>
       </c>
     </row>
-    <row r="191" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9113</v>
+      </c>
       <c r="C191" s="4" t="s">
         <v>631</v>
       </c>
@@ -26481,7 +27229,11 @@
         <v>822</v>
       </c>
     </row>
-    <row r="192" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9114</v>
+      </c>
       <c r="C192" s="4" t="s">
         <v>631</v>
       </c>
@@ -26504,7 +27256,11 @@
         <v>823</v>
       </c>
     </row>
-    <row r="193" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9115</v>
+      </c>
       <c r="C193" s="4" t="s">
         <v>631</v>
       </c>
@@ -26527,7 +27283,11 @@
         <v>824</v>
       </c>
     </row>
-    <row r="194" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9116</v>
+      </c>
       <c r="C194" s="4" t="s">
         <v>631</v>
       </c>
@@ -26550,7 +27310,11 @@
         <v>825</v>
       </c>
     </row>
-    <row r="195" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9117</v>
+      </c>
       <c r="C195" s="4" t="s">
         <v>631</v>
       </c>
@@ -26573,7 +27337,11 @@
         <v>826</v>
       </c>
     </row>
-    <row r="196" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9118</v>
+      </c>
       <c r="C196" s="4" t="s">
         <v>631</v>
       </c>
@@ -26596,7 +27364,11 @@
         <v>827</v>
       </c>
     </row>
-    <row r="197" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9119</v>
+      </c>
       <c r="C197" s="4" t="s">
         <v>631</v>
       </c>
@@ -26619,7 +27391,11 @@
         <v>828</v>
       </c>
     </row>
-    <row r="198" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9120</v>
+      </c>
       <c r="C198" s="4" t="s">
         <v>631</v>
       </c>
@@ -26642,7 +27418,11 @@
         <v>829</v>
       </c>
     </row>
-    <row r="199" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9121</v>
+      </c>
       <c r="C199" s="4" t="s">
         <v>631</v>
       </c>
@@ -26665,7 +27445,11 @@
         <v>830</v>
       </c>
     </row>
-    <row r="200" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9201</v>
+      </c>
       <c r="C200" s="4" t="s">
         <v>631</v>
       </c>
@@ -26688,7 +27472,11 @@
         <v>831</v>
       </c>
     </row>
-    <row r="201" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9202</v>
+      </c>
       <c r="C201" s="4" t="s">
         <v>631</v>
       </c>
@@ -26711,7 +27499,11 @@
         <v>832</v>
       </c>
     </row>
-    <row r="202" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9203</v>
+      </c>
       <c r="C202" s="4" t="s">
         <v>631</v>
       </c>
@@ -26734,7 +27526,11 @@
         <v>833</v>
       </c>
     </row>
-    <row r="203" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9204</v>
+      </c>
       <c r="C203" s="4" t="s">
         <v>631</v>
       </c>
@@ -26757,7 +27553,11 @@
         <v>834</v>
       </c>
     </row>
-    <row r="204" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9205</v>
+      </c>
       <c r="C204" s="4" t="s">
         <v>631</v>
       </c>
@@ -26780,7 +27580,11 @@
         <v>835</v>
       </c>
     </row>
-    <row r="205" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9206</v>
+      </c>
       <c r="C205" s="4" t="s">
         <v>631</v>
       </c>
@@ -26803,7 +27607,11 @@
         <v>836</v>
       </c>
     </row>
-    <row r="206" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9207</v>
+      </c>
       <c r="C206" s="4" t="s">
         <v>631</v>
       </c>
@@ -26826,7 +27634,11 @@
         <v>837</v>
       </c>
     </row>
-    <row r="207" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9208</v>
+      </c>
       <c r="C207" s="4" t="s">
         <v>631</v>
       </c>
@@ -26849,7 +27661,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="208" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9209</v>
+      </c>
       <c r="C208" s="4" t="s">
         <v>631</v>
       </c>
@@ -26872,7 +27688,11 @@
         <v>839</v>
       </c>
     </row>
-    <row r="209" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9210</v>
+      </c>
       <c r="C209" s="4" t="s">
         <v>631</v>
       </c>
@@ -26895,7 +27715,11 @@
         <v>840</v>
       </c>
     </row>
-    <row r="210" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>9211</v>
+      </c>
       <c r="C210" s="4" t="s">
         <v>631</v>
       </c>
@@ -26918,7 +27742,11 @@
         <v>841</v>
       </c>
     </row>
-    <row r="211" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10101</v>
+      </c>
       <c r="C211" s="4" t="s">
         <v>631</v>
       </c>
@@ -26941,7 +27769,11 @@
         <v>843</v>
       </c>
     </row>
-    <row r="212" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10102</v>
+      </c>
       <c r="C212" s="4" t="s">
         <v>631</v>
       </c>
@@ -26964,7 +27796,11 @@
         <v>844</v>
       </c>
     </row>
-    <row r="213" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10103</v>
+      </c>
       <c r="C213" s="4" t="s">
         <v>631</v>
       </c>
@@ -26987,7 +27823,11 @@
         <v>845</v>
       </c>
     </row>
-    <row r="214" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10104</v>
+      </c>
       <c r="C214" s="4" t="s">
         <v>631</v>
       </c>
@@ -27010,7 +27850,11 @@
         <v>846</v>
       </c>
     </row>
-    <row r="215" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10105</v>
+      </c>
       <c r="C215" s="4" t="s">
         <v>631</v>
       </c>
@@ -27033,7 +27877,11 @@
         <v>847</v>
       </c>
     </row>
-    <row r="216" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10106</v>
+      </c>
       <c r="C216" s="4" t="s">
         <v>631</v>
       </c>
@@ -27056,7 +27904,11 @@
         <v>848</v>
       </c>
     </row>
-    <row r="217" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10107</v>
+      </c>
       <c r="C217" s="4" t="s">
         <v>631</v>
       </c>
@@ -27079,7 +27931,11 @@
         <v>849</v>
       </c>
     </row>
-    <row r="218" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10108</v>
+      </c>
       <c r="C218" s="4" t="s">
         <v>631</v>
       </c>
@@ -27102,7 +27958,11 @@
         <v>850</v>
       </c>
     </row>
-    <row r="219" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10109</v>
+      </c>
       <c r="C219" s="4" t="s">
         <v>631</v>
       </c>
@@ -27125,7 +27985,11 @@
         <v>851</v>
       </c>
     </row>
-    <row r="220" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10201</v>
+      </c>
       <c r="C220" s="4" t="s">
         <v>631</v>
       </c>
@@ -27148,7 +28012,11 @@
         <v>852</v>
       </c>
     </row>
-    <row r="221" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10202</v>
+      </c>
       <c r="C221" s="4" t="s">
         <v>631</v>
       </c>
@@ -27171,7 +28039,11 @@
         <v>853</v>
       </c>
     </row>
-    <row r="222" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10203</v>
+      </c>
       <c r="C222" s="4" t="s">
         <v>631</v>
       </c>
@@ -27194,7 +28066,11 @@
         <v>854</v>
       </c>
     </row>
-    <row r="223" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10204</v>
+      </c>
       <c r="C223" s="4" t="s">
         <v>631</v>
       </c>
@@ -27217,7 +28093,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="224" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10205</v>
+      </c>
       <c r="C224" s="4" t="s">
         <v>631</v>
       </c>
@@ -27240,7 +28120,11 @@
         <v>856</v>
       </c>
     </row>
-    <row r="225" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10206</v>
+      </c>
       <c r="C225" s="4" t="s">
         <v>631</v>
       </c>
@@ -27263,7 +28147,11 @@
         <v>857</v>
       </c>
     </row>
-    <row r="226" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10207</v>
+      </c>
       <c r="C226" s="4" t="s">
         <v>631</v>
       </c>
@@ -27286,7 +28174,11 @@
         <v>858</v>
       </c>
     </row>
-    <row r="227" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10208</v>
+      </c>
       <c r="C227" s="4" t="s">
         <v>631</v>
       </c>
@@ -27309,7 +28201,11 @@
         <v>859</v>
       </c>
     </row>
-    <row r="228" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10209</v>
+      </c>
       <c r="C228" s="4" t="s">
         <v>631</v>
       </c>
@@ -27332,7 +28228,11 @@
         <v>860</v>
       </c>
     </row>
-    <row r="229" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10210</v>
+      </c>
       <c r="C229" s="4" t="s">
         <v>631</v>
       </c>
@@ -27355,7 +28255,11 @@
         <v>861</v>
       </c>
     </row>
-    <row r="230" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10301</v>
+      </c>
       <c r="C230" s="4" t="s">
         <v>631</v>
       </c>
@@ -27378,7 +28282,11 @@
         <v>862</v>
       </c>
     </row>
-    <row r="231" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10302</v>
+      </c>
       <c r="C231" s="4" t="s">
         <v>631</v>
       </c>
@@ -27401,7 +28309,11 @@
         <v>863</v>
       </c>
     </row>
-    <row r="232" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10303</v>
+      </c>
       <c r="C232" s="4" t="s">
         <v>631</v>
       </c>
@@ -27424,7 +28336,11 @@
         <v>864</v>
       </c>
     </row>
-    <row r="233" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10304</v>
+      </c>
       <c r="C233" s="4" t="s">
         <v>631</v>
       </c>
@@ -27447,7 +28363,11 @@
         <v>865</v>
       </c>
     </row>
-    <row r="234" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10305</v>
+      </c>
       <c r="C234" s="4" t="s">
         <v>631</v>
       </c>
@@ -27470,7 +28390,11 @@
         <v>866</v>
       </c>
     </row>
-    <row r="235" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10306</v>
+      </c>
       <c r="C235" s="4" t="s">
         <v>631</v>
       </c>
@@ -27493,7 +28417,11 @@
         <v>867</v>
       </c>
     </row>
-    <row r="236" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10307</v>
+      </c>
       <c r="C236" s="4" t="s">
         <v>631</v>
       </c>
@@ -27516,7 +28444,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="237" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10401</v>
+      </c>
       <c r="C237" s="4" t="s">
         <v>631</v>
       </c>
@@ -27539,7 +28471,11 @@
         <v>868</v>
       </c>
     </row>
-    <row r="238" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10402</v>
+      </c>
       <c r="C238" s="4" t="s">
         <v>631</v>
       </c>
@@ -27562,7 +28498,11 @@
         <v>869</v>
       </c>
     </row>
-    <row r="239" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10403</v>
+      </c>
       <c r="C239" s="4" t="s">
         <v>631</v>
       </c>
@@ -27585,7 +28525,11 @@
         <v>870</v>
       </c>
     </row>
-    <row r="240" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>10404</v>
+      </c>
       <c r="C240" s="4" t="s">
         <v>631</v>
       </c>
@@ -27608,7 +28552,11 @@
         <v>871</v>
       </c>
     </row>
-    <row r="241" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>11101</v>
+      </c>
       <c r="C241" s="4" t="s">
         <v>631</v>
       </c>
@@ -27631,7 +28579,11 @@
         <v>873</v>
       </c>
     </row>
-    <row r="242" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>11102</v>
+      </c>
       <c r="C242" s="4" t="s">
         <v>631</v>
       </c>
@@ -27654,7 +28606,11 @@
         <v>874</v>
       </c>
     </row>
-    <row r="243" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>11201</v>
+      </c>
       <c r="C243" s="4" t="s">
         <v>631</v>
       </c>
@@ -27677,7 +28633,11 @@
         <v>875</v>
       </c>
     </row>
-    <row r="244" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>11202</v>
+      </c>
       <c r="C244" s="4" t="s">
         <v>631</v>
       </c>
@@ -27700,7 +28660,11 @@
         <v>876</v>
       </c>
     </row>
-    <row r="245" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>11203</v>
+      </c>
       <c r="C245" s="4" t="s">
         <v>631</v>
       </c>
@@ -27723,7 +28687,11 @@
         <v>877</v>
       </c>
     </row>
-    <row r="246" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>11301</v>
+      </c>
       <c r="C246" s="4" t="s">
         <v>631</v>
       </c>
@@ -27746,7 +28714,11 @@
         <v>878</v>
       </c>
     </row>
-    <row r="247" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>11302</v>
+      </c>
       <c r="C247" s="4" t="s">
         <v>631</v>
       </c>
@@ -27769,7 +28741,11 @@
         <v>713</v>
       </c>
     </row>
-    <row r="248" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>11303</v>
+      </c>
       <c r="C248" s="4" t="s">
         <v>631</v>
       </c>
@@ -27792,7 +28768,11 @@
         <v>879</v>
       </c>
     </row>
-    <row r="249" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>11401</v>
+      </c>
       <c r="C249" s="4" t="s">
         <v>631</v>
       </c>
@@ -27815,7 +28795,11 @@
         <v>880</v>
       </c>
     </row>
-    <row r="250" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>11402</v>
+      </c>
       <c r="C250" s="4" t="s">
         <v>631</v>
       </c>
@@ -27838,7 +28822,11 @@
         <v>881</v>
       </c>
     </row>
-    <row r="251" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>12101</v>
+      </c>
       <c r="C251" s="4" t="s">
         <v>631</v>
       </c>
@@ -27861,7 +28849,11 @@
         <v>883</v>
       </c>
     </row>
-    <row r="252" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>12102</v>
+      </c>
       <c r="C252" s="4" t="s">
         <v>631</v>
       </c>
@@ -27884,7 +28876,11 @@
         <v>884</v>
       </c>
     </row>
-    <row r="253" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>12103</v>
+      </c>
       <c r="C253" s="4" t="s">
         <v>631</v>
       </c>
@@ -27907,7 +28903,11 @@
         <v>885</v>
       </c>
     </row>
-    <row r="254" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>12104</v>
+      </c>
       <c r="C254" s="4" t="s">
         <v>631</v>
       </c>
@@ -27930,7 +28930,11 @@
         <v>886</v>
       </c>
     </row>
-    <row r="255" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>12201</v>
+      </c>
       <c r="C255" s="4" t="s">
         <v>631</v>
       </c>
@@ -27953,7 +28957,11 @@
         <v>887</v>
       </c>
     </row>
-    <row r="256" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>12201</v>
+      </c>
       <c r="C256" s="4" t="s">
         <v>631</v>
       </c>
@@ -27976,7 +28984,11 @@
         <v>888</v>
       </c>
     </row>
-    <row r="257" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>12301</v>
+      </c>
       <c r="C257" s="4" t="s">
         <v>631</v>
       </c>
@@ -27999,7 +29011,11 @@
         <v>889</v>
       </c>
     </row>
-    <row r="258" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>12302</v>
+      </c>
       <c r="C258" s="4" t="s">
         <v>631</v>
       </c>
@@ -28022,7 +29038,11 @@
         <v>890</v>
       </c>
     </row>
-    <row r="259" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>12303</v>
+      </c>
       <c r="C259" s="4" t="s">
         <v>631</v>
       </c>
@@ -28045,7 +29065,11 @@
         <v>891</v>
       </c>
     </row>
-    <row r="260" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>12401</v>
+      </c>
       <c r="C260" s="4" t="s">
         <v>631</v>
       </c>
@@ -28068,7 +29092,11 @@
         <v>892</v>
       </c>
     </row>
-    <row r="261" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>12402</v>
+      </c>
       <c r="C261" s="4" t="s">
         <v>631</v>
       </c>
@@ -28091,7 +29119,11 @@
         <v>893</v>
       </c>
     </row>
-    <row r="262" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13101</v>
+      </c>
       <c r="C262" s="4" t="s">
         <v>631</v>
       </c>
@@ -28114,7 +29146,11 @@
         <v>895</v>
       </c>
     </row>
-    <row r="263" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13102</v>
+      </c>
       <c r="C263" s="4" t="s">
         <v>631</v>
       </c>
@@ -28137,7 +29173,11 @@
         <v>896</v>
       </c>
     </row>
-    <row r="264" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13103</v>
+      </c>
       <c r="C264" s="4" t="s">
         <v>631</v>
       </c>
@@ -28160,7 +29200,11 @@
         <v>897</v>
       </c>
     </row>
-    <row r="265" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13104</v>
+      </c>
       <c r="C265" s="4" t="s">
         <v>631</v>
       </c>
@@ -28183,7 +29227,11 @@
         <v>898</v>
       </c>
     </row>
-    <row r="266" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13105</v>
+      </c>
       <c r="C266" s="4" t="s">
         <v>631</v>
       </c>
@@ -28206,7 +29254,11 @@
         <v>899</v>
       </c>
     </row>
-    <row r="267" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13106</v>
+      </c>
       <c r="C267" s="4" t="s">
         <v>631</v>
       </c>
@@ -28229,7 +29281,11 @@
         <v>900</v>
       </c>
     </row>
-    <row r="268" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13107</v>
+      </c>
       <c r="C268" s="4" t="s">
         <v>631</v>
       </c>
@@ -28252,7 +29308,11 @@
         <v>901</v>
       </c>
     </row>
-    <row r="269" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13108</v>
+      </c>
       <c r="C269" s="4" t="s">
         <v>631</v>
       </c>
@@ -28275,7 +29335,11 @@
         <v>902</v>
       </c>
     </row>
-    <row r="270" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13109</v>
+      </c>
       <c r="C270" s="4" t="s">
         <v>631</v>
       </c>
@@ -28298,7 +29362,11 @@
         <v>903</v>
       </c>
     </row>
-    <row r="271" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13110</v>
+      </c>
       <c r="C271" s="4" t="s">
         <v>631</v>
       </c>
@@ -28321,7 +29389,11 @@
         <v>904</v>
       </c>
     </row>
-    <row r="272" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13111</v>
+      </c>
       <c r="C272" s="4" t="s">
         <v>631</v>
       </c>
@@ -28344,7 +29416,11 @@
         <v>905</v>
       </c>
     </row>
-    <row r="273" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13112</v>
+      </c>
       <c r="C273" s="4" t="s">
         <v>631</v>
       </c>
@@ -28367,7 +29443,11 @@
         <v>906</v>
       </c>
     </row>
-    <row r="274" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13113</v>
+      </c>
       <c r="C274" s="4" t="s">
         <v>631</v>
       </c>
@@ -28390,7 +29470,11 @@
         <v>907</v>
       </c>
     </row>
-    <row r="275" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13114</v>
+      </c>
       <c r="C275" s="4" t="s">
         <v>631</v>
       </c>
@@ -28413,7 +29497,11 @@
         <v>908</v>
       </c>
     </row>
-    <row r="276" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13115</v>
+      </c>
       <c r="C276" s="4" t="s">
         <v>631</v>
       </c>
@@ -28436,7 +29524,11 @@
         <v>909</v>
       </c>
     </row>
-    <row r="277" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13116</v>
+      </c>
       <c r="C277" s="4" t="s">
         <v>631</v>
       </c>
@@ -28459,7 +29551,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="278" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13117</v>
+      </c>
       <c r="C278" s="4" t="s">
         <v>631</v>
       </c>
@@ -28482,7 +29578,11 @@
         <v>911</v>
       </c>
     </row>
-    <row r="279" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13118</v>
+      </c>
       <c r="C279" s="4" t="s">
         <v>631</v>
       </c>
@@ -28505,7 +29605,11 @@
         <v>912</v>
       </c>
     </row>
-    <row r="280" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13119</v>
+      </c>
       <c r="C280" s="4" t="s">
         <v>631</v>
       </c>
@@ -28528,7 +29632,11 @@
         <v>913</v>
       </c>
     </row>
-    <row r="281" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13120</v>
+      </c>
       <c r="C281" s="4" t="s">
         <v>631</v>
       </c>
@@ -28551,7 +29659,11 @@
         <v>914</v>
       </c>
     </row>
-    <row r="282" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13121</v>
+      </c>
       <c r="C282" s="4" t="s">
         <v>631</v>
       </c>
@@ -28574,7 +29686,11 @@
         <v>915</v>
       </c>
     </row>
-    <row r="283" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13122</v>
+      </c>
       <c r="C283" s="4" t="s">
         <v>631</v>
       </c>
@@ -28597,7 +29713,11 @@
         <v>916</v>
       </c>
     </row>
-    <row r="284" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13123</v>
+      </c>
       <c r="C284" s="4" t="s">
         <v>631</v>
       </c>
@@ -28620,7 +29740,11 @@
         <v>917</v>
       </c>
     </row>
-    <row r="285" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13124</v>
+      </c>
       <c r="C285" s="4" t="s">
         <v>631</v>
       </c>
@@ -28643,7 +29767,11 @@
         <v>918</v>
       </c>
     </row>
-    <row r="286" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13125</v>
+      </c>
       <c r="C286" s="4" t="s">
         <v>631</v>
       </c>
@@ -28666,7 +29794,11 @@
         <v>919</v>
       </c>
     </row>
-    <row r="287" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13126</v>
+      </c>
       <c r="C287" s="4" t="s">
         <v>631</v>
       </c>
@@ -28689,7 +29821,11 @@
         <v>920</v>
       </c>
     </row>
-    <row r="288" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13127</v>
+      </c>
       <c r="C288" s="4" t="s">
         <v>631</v>
       </c>
@@ -28712,7 +29848,11 @@
         <v>921</v>
       </c>
     </row>
-    <row r="289" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13128</v>
+      </c>
       <c r="C289" s="4" t="s">
         <v>631</v>
       </c>
@@ -28735,7 +29875,11 @@
         <v>922</v>
       </c>
     </row>
-    <row r="290" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13129</v>
+      </c>
       <c r="C290" s="4" t="s">
         <v>631</v>
       </c>
@@ -28758,7 +29902,11 @@
         <v>923</v>
       </c>
     </row>
-    <row r="291" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13130</v>
+      </c>
       <c r="C291" s="4" t="s">
         <v>631</v>
       </c>
@@ -28781,7 +29929,11 @@
         <v>924</v>
       </c>
     </row>
-    <row r="292" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13131</v>
+      </c>
       <c r="C292" s="4" t="s">
         <v>631</v>
       </c>
@@ -28804,7 +29956,11 @@
         <v>925</v>
       </c>
     </row>
-    <row r="293" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13132</v>
+      </c>
       <c r="C293" s="4" t="s">
         <v>631</v>
       </c>
@@ -28827,7 +29983,11 @@
         <v>926</v>
       </c>
     </row>
-    <row r="294" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13201</v>
+      </c>
       <c r="C294" s="4" t="s">
         <v>631</v>
       </c>
@@ -28850,7 +30010,11 @@
         <v>927</v>
       </c>
     </row>
-    <row r="295" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13202</v>
+      </c>
       <c r="C295" s="4" t="s">
         <v>631</v>
       </c>
@@ -28873,7 +30037,11 @@
         <v>928</v>
       </c>
     </row>
-    <row r="296" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13203</v>
+      </c>
       <c r="C296" s="4" t="s">
         <v>631</v>
       </c>
@@ -28896,7 +30064,11 @@
         <v>929</v>
       </c>
     </row>
-    <row r="297" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13301</v>
+      </c>
       <c r="C297" s="4" t="s">
         <v>631</v>
       </c>
@@ -28919,7 +30091,11 @@
         <v>930</v>
       </c>
     </row>
-    <row r="298" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13302</v>
+      </c>
       <c r="C298" s="4" t="s">
         <v>631</v>
       </c>
@@ -28942,7 +30118,11 @@
         <v>931</v>
       </c>
     </row>
-    <row r="299" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13303</v>
+      </c>
       <c r="C299" s="4" t="s">
         <v>631</v>
       </c>
@@ -28965,7 +30145,11 @@
         <v>932</v>
       </c>
     </row>
-    <row r="300" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13401</v>
+      </c>
       <c r="C300" s="4" t="s">
         <v>631</v>
       </c>
@@ -28988,7 +30172,11 @@
         <v>933</v>
       </c>
     </row>
-    <row r="301" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13402</v>
+      </c>
       <c r="C301" s="4" t="s">
         <v>631</v>
       </c>
@@ -29011,7 +30199,11 @@
         <v>934</v>
       </c>
     </row>
-    <row r="302" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13403</v>
+      </c>
       <c r="C302" s="4" t="s">
         <v>631</v>
       </c>
@@ -29034,7 +30226,11 @@
         <v>935</v>
       </c>
     </row>
-    <row r="303" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13404</v>
+      </c>
       <c r="C303" s="4" t="s">
         <v>631</v>
       </c>
@@ -29057,7 +30253,11 @@
         <v>936</v>
       </c>
     </row>
-    <row r="304" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13501</v>
+      </c>
       <c r="C304" s="4" t="s">
         <v>631</v>
       </c>
@@ -29080,7 +30280,11 @@
         <v>937</v>
       </c>
     </row>
-    <row r="305" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13502</v>
+      </c>
       <c r="C305" s="4" t="s">
         <v>631</v>
       </c>
@@ -29103,7 +30307,11 @@
         <v>938</v>
       </c>
     </row>
-    <row r="306" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13503</v>
+      </c>
       <c r="C306" s="4" t="s">
         <v>631</v>
       </c>
@@ -29126,7 +30334,11 @@
         <v>939</v>
       </c>
     </row>
-    <row r="307" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13504</v>
+      </c>
       <c r="C307" s="4" t="s">
         <v>631</v>
       </c>
@@ -29149,7 +30361,11 @@
         <v>940</v>
       </c>
     </row>
-    <row r="308" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13505</v>
+      </c>
       <c r="C308" s="4" t="s">
         <v>631</v>
       </c>
@@ -29172,7 +30388,11 @@
         <v>941</v>
       </c>
     </row>
-    <row r="309" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13601</v>
+      </c>
       <c r="C309" s="4" t="s">
         <v>631</v>
       </c>
@@ -29195,7 +30415,11 @@
         <v>942</v>
       </c>
     </row>
-    <row r="310" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13602</v>
+      </c>
       <c r="C310" s="4" t="s">
         <v>631</v>
       </c>
@@ -29218,7 +30442,11 @@
         <v>943</v>
       </c>
     </row>
-    <row r="311" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13603</v>
+      </c>
       <c r="C311" s="4" t="s">
         <v>631</v>
       </c>
@@ -29241,7 +30469,11 @@
         <v>944</v>
       </c>
     </row>
-    <row r="312" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13604</v>
+      </c>
       <c r="C312" s="4" t="s">
         <v>631</v>
       </c>
@@ -29264,7 +30496,11 @@
         <v>945</v>
       </c>
     </row>
-    <row r="313" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>13605</v>
+      </c>
       <c r="C313" s="4" t="s">
         <v>631</v>
       </c>
@@ -29287,7 +30523,11 @@
         <v>946</v>
       </c>
     </row>
-    <row r="314" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>14101</v>
+      </c>
       <c r="C314" s="4" t="s">
         <v>631</v>
       </c>
@@ -29310,7 +30550,11 @@
         <v>948</v>
       </c>
     </row>
-    <row r="315" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>14102</v>
+      </c>
       <c r="C315" s="4" t="s">
         <v>631</v>
       </c>
@@ -29333,7 +30577,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="316" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>14103</v>
+      </c>
       <c r="C316" s="4" t="s">
         <v>631</v>
       </c>
@@ -29356,7 +30604,11 @@
         <v>950</v>
       </c>
     </row>
-    <row r="317" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B317">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>14104</v>
+      </c>
       <c r="C317" s="4" t="s">
         <v>631</v>
       </c>
@@ -29379,7 +30631,11 @@
         <v>842</v>
       </c>
     </row>
-    <row r="318" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B318">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>14105</v>
+      </c>
       <c r="C318" s="4" t="s">
         <v>631</v>
       </c>
@@ -29402,7 +30658,11 @@
         <v>951</v>
       </c>
     </row>
-    <row r="319" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>14106</v>
+      </c>
       <c r="C319" s="4" t="s">
         <v>631</v>
       </c>
@@ -29425,7 +30685,11 @@
         <v>952</v>
       </c>
     </row>
-    <row r="320" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>14107</v>
+      </c>
       <c r="C320" s="4" t="s">
         <v>631</v>
       </c>
@@ -29448,7 +30712,11 @@
         <v>953</v>
       </c>
     </row>
-    <row r="321" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>14108</v>
+      </c>
       <c r="C321" s="4" t="s">
         <v>631</v>
       </c>
@@ -29471,7 +30739,11 @@
         <v>954</v>
       </c>
     </row>
-    <row r="322" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>14201</v>
+      </c>
       <c r="C322" s="4" t="s">
         <v>631</v>
       </c>
@@ -29494,7 +30766,11 @@
         <v>311</v>
       </c>
     </row>
-    <row r="323" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>14202</v>
+      </c>
       <c r="C323" s="4" t="s">
         <v>631</v>
       </c>
@@ -29517,7 +30793,11 @@
         <v>955</v>
       </c>
     </row>
-    <row r="324" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B324">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>14203</v>
+      </c>
       <c r="C324" s="4" t="s">
         <v>631</v>
       </c>
@@ -29540,7 +30820,11 @@
         <v>956</v>
       </c>
     </row>
-    <row r="325" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>14204</v>
+      </c>
       <c r="C325" s="4" t="s">
         <v>631</v>
       </c>
@@ -29563,7 +30847,11 @@
         <v>957</v>
       </c>
     </row>
-    <row r="326" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B326">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>15101</v>
+      </c>
       <c r="C326" s="4" t="s">
         <v>631</v>
       </c>
@@ -29586,7 +30874,11 @@
         <v>959</v>
       </c>
     </row>
-    <row r="327" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B327">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>15102</v>
+      </c>
       <c r="C327" s="4" t="s">
         <v>631</v>
       </c>
@@ -29609,7 +30901,11 @@
         <v>960</v>
       </c>
     </row>
-    <row r="328" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B328">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>15201</v>
+      </c>
       <c r="C328" s="4" t="s">
         <v>631</v>
       </c>
@@ -29632,7 +30928,11 @@
         <v>961</v>
       </c>
     </row>
-    <row r="329" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B329">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>15202</v>
+      </c>
       <c r="C329" s="4" t="s">
         <v>631</v>
       </c>
@@ -29655,7 +30955,11 @@
         <v>962</v>
       </c>
     </row>
-    <row r="330" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B330">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16101</v>
+      </c>
       <c r="C330" s="4" t="s">
         <v>631</v>
       </c>
@@ -29678,7 +30982,11 @@
         <v>964</v>
       </c>
     </row>
-    <row r="331" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B331">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16102</v>
+      </c>
       <c r="C331" s="4" t="s">
         <v>631</v>
       </c>
@@ -29701,7 +31009,11 @@
         <v>965</v>
       </c>
     </row>
-    <row r="332" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B332">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16103</v>
+      </c>
       <c r="C332" s="4" t="s">
         <v>631</v>
       </c>
@@ -29724,7 +31036,11 @@
         <v>966</v>
       </c>
     </row>
-    <row r="333" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B333">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16104</v>
+      </c>
       <c r="C333" s="4" t="s">
         <v>631</v>
       </c>
@@ -29747,7 +31063,11 @@
         <v>967</v>
       </c>
     </row>
-    <row r="334" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B334">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16105</v>
+      </c>
       <c r="C334" s="4" t="s">
         <v>631</v>
       </c>
@@ -29770,7 +31090,11 @@
         <v>968</v>
       </c>
     </row>
-    <row r="335" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B335">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16106</v>
+      </c>
       <c r="C335" s="4" t="s">
         <v>631</v>
       </c>
@@ -29793,7 +31117,11 @@
         <v>969</v>
       </c>
     </row>
-    <row r="336" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16107</v>
+      </c>
       <c r="C336" s="4" t="s">
         <v>631</v>
       </c>
@@ -29816,7 +31144,11 @@
         <v>970</v>
       </c>
     </row>
-    <row r="337" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16108</v>
+      </c>
       <c r="C337" s="4" t="s">
         <v>631</v>
       </c>
@@ -29839,7 +31171,11 @@
         <v>971</v>
       </c>
     </row>
-    <row r="338" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16109</v>
+      </c>
       <c r="C338" s="4" t="s">
         <v>631</v>
       </c>
@@ -29862,7 +31198,11 @@
         <v>972</v>
       </c>
     </row>
-    <row r="339" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16201</v>
+      </c>
       <c r="C339" s="4" t="s">
         <v>631</v>
       </c>
@@ -29885,7 +31225,11 @@
         <v>973</v>
       </c>
     </row>
-    <row r="340" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16202</v>
+      </c>
       <c r="C340" s="4" t="s">
         <v>631</v>
       </c>
@@ -29908,7 +31252,11 @@
         <v>974</v>
       </c>
     </row>
-    <row r="341" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16203</v>
+      </c>
       <c r="C341" s="4" t="s">
         <v>631</v>
       </c>
@@ -29931,7 +31279,11 @@
         <v>975</v>
       </c>
     </row>
-    <row r="342" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16204</v>
+      </c>
       <c r="C342" s="4" t="s">
         <v>631</v>
       </c>
@@ -29954,7 +31306,11 @@
         <v>976</v>
       </c>
     </row>
-    <row r="343" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16205</v>
+      </c>
       <c r="C343" s="4" t="s">
         <v>631</v>
       </c>
@@ -29977,7 +31333,11 @@
         <v>977</v>
       </c>
     </row>
-    <row r="344" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16206</v>
+      </c>
       <c r="C344" s="4" t="s">
         <v>631</v>
       </c>
@@ -30000,7 +31360,11 @@
         <v>978</v>
       </c>
     </row>
-    <row r="345" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16207</v>
+      </c>
       <c r="C345" s="4" t="s">
         <v>631</v>
       </c>
@@ -30023,7 +31387,11 @@
         <v>979</v>
       </c>
     </row>
-    <row r="346" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16301</v>
+      </c>
       <c r="C346" s="4" t="s">
         <v>631</v>
       </c>
@@ -30046,7 +31414,11 @@
         <v>980</v>
       </c>
     </row>
-    <row r="347" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B347">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16302</v>
+      </c>
       <c r="C347" s="4" t="s">
         <v>631</v>
       </c>
@@ -30069,7 +31441,11 @@
         <v>981</v>
       </c>
     </row>
-    <row r="348" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B348">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16303</v>
+      </c>
       <c r="C348" s="4" t="s">
         <v>631</v>
       </c>
@@ -30092,7 +31468,11 @@
         <v>982</v>
       </c>
     </row>
-    <row r="349" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B349">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16304</v>
+      </c>
       <c r="C349" s="4" t="s">
         <v>631</v>
       </c>
@@ -30115,7 +31495,11 @@
         <v>983</v>
       </c>
     </row>
-    <row r="350" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B350">
+        <f>+Localiza_CL_Codreg_Codcom[[#This Row],[Codcom]]</f>
+        <v>16305</v>
+      </c>
       <c r="C350" s="4" t="s">
         <v>631</v>
       </c>
